--- a/NewSheet.xlsx
+++ b/NewSheet.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OD traninig videos\OD DOC\Backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OD traninig videos\OD DOC\Backup\Mydocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD8A03-ED07-4720-B9FF-0BF598B7B6CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A124CB-8DF2-4E36-9882-287BEB57A2B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{2C1CCCC0-FA86-4596-BF9F-0B816FA82C3B}"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="21600" windowHeight="11340" activeTab="4" xr2:uid="{2C1CCCC0-FA86-4596-BF9F-0B816FA82C3B}"/>
   </bookViews>
   <sheets>
     <sheet name="SYS PW" sheetId="1" r:id="rId1"/>
     <sheet name="CT Number" sheetId="2" r:id="rId2"/>
     <sheet name="EXTN" sheetId="3" r:id="rId3"/>
     <sheet name="Ticket Count" sheetId="4" r:id="rId4"/>
+    <sheet name="Test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3703,6 +3704,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3712,8 +3715,6 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{D5D754F8-3D70-41CE-AEF2-29C00D731B4A}"/>
@@ -8679,10 +8680,10 @@
       <c r="E4" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8702,8 +8703,8 @@
       <c r="E5" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="50" t="s">
@@ -8738,10 +8739,10 @@
       <c r="E7" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="F7" s="91">
+      <c r="F7" s="93">
         <v>6102209776</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8761,8 +8762,8 @@
       <c r="E8" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="94"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="50" t="s">
@@ -8780,8 +8781,8 @@
       <c r="E9" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="50" t="s">
@@ -8819,10 +8820,10 @@
       <c r="D11" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="93">
         <v>8564910222</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8839,8 +8840,8 @@
       <c r="D12" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="50" t="s">
@@ -8849,8 +8850,8 @@
       <c r="D13" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="50" t="s">
@@ -8859,8 +8860,8 @@
       <c r="D14" s="51" t="s">
         <v>387</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="92"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="50" t="s">
@@ -8881,7 +8882,7 @@
       <c r="F15" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8901,7 +8902,7 @@
       <c r="E16" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="G16" s="92"/>
+      <c r="G16" s="94"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="50" t="s">
@@ -9220,10 +9221,10 @@
       <c r="E31" s="52" t="s">
         <v>457</v>
       </c>
-      <c r="F31" s="91" t="s">
+      <c r="F31" s="93" t="s">
         <v>458</v>
       </c>
-      <c r="G31" s="92" t="s">
+      <c r="G31" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9243,8 +9244,8 @@
       <c r="E32" s="47" t="s">
         <v>459</v>
       </c>
-      <c r="F32" s="91"/>
-      <c r="G32" s="92"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="94"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="50" t="s">
@@ -9253,8 +9254,8 @@
       <c r="D33" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="F33" s="91"/>
-      <c r="G33" s="92"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="50" t="s">
@@ -9263,8 +9264,8 @@
       <c r="D34" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="92"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="94"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="50" t="s">
@@ -9377,7 +9378,7 @@
       <c r="F39" s="53" t="s">
         <v>486</v>
       </c>
-      <c r="G39" s="92" t="s">
+      <c r="G39" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9397,7 +9398,7 @@
       <c r="E40" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="G40" s="92"/>
+      <c r="G40" s="94"/>
       <c r="H40" s="55" t="s">
         <v>488</v>
       </c>
@@ -9418,10 +9419,10 @@
       <c r="E41" s="47" t="s">
         <v>491</v>
       </c>
-      <c r="F41" s="91" t="s">
+      <c r="F41" s="93" t="s">
         <v>492</v>
       </c>
-      <c r="G41" s="92" t="s">
+      <c r="G41" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9441,8 +9442,8 @@
       <c r="E42" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="F42" s="91"/>
-      <c r="G42" s="92"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="94"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="50" t="s">
@@ -9471,10 +9472,10 @@
       <c r="D44" s="51" t="s">
         <v>501</v>
       </c>
-      <c r="F44" s="91" t="s">
+      <c r="F44" s="93" t="s">
         <v>502</v>
       </c>
-      <c r="G44" s="92"/>
+      <c r="G44" s="94"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="50" t="s">
@@ -9489,8 +9490,8 @@
       <c r="D45" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="F45" s="91"/>
-      <c r="G45" s="92"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="94"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="50" t="s">
@@ -9525,10 +9526,10 @@
       <c r="E47" s="47" t="s">
         <v>512</v>
       </c>
-      <c r="F47" s="91" t="s">
+      <c r="F47" s="93" t="s">
         <v>513</v>
       </c>
-      <c r="G47" s="92" t="s">
+      <c r="G47" s="94" t="s">
         <v>24</v>
       </c>
       <c r="I47" s="50" t="s">
@@ -9551,8 +9552,8 @@
       <c r="E48" s="47" t="s">
         <v>515</v>
       </c>
-      <c r="F48" s="91"/>
-      <c r="G48" s="92"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="94"/>
       <c r="H48" s="58" t="s">
         <v>516</v>
       </c>
@@ -9564,8 +9565,8 @@
       <c r="D49" s="51" t="s">
         <v>518</v>
       </c>
-      <c r="F49" s="91"/>
-      <c r="G49" s="92"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="94"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="50" t="s">
@@ -9574,8 +9575,8 @@
       <c r="D50" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="F50" s="91"/>
-      <c r="G50" s="92"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="94"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="50" t="s">
@@ -9706,10 +9707,10 @@
       <c r="D56" s="51" t="s">
         <v>540</v>
       </c>
-      <c r="F56" s="91" t="s">
+      <c r="F56" s="93" t="s">
         <v>541</v>
       </c>
-      <c r="G56" s="92" t="s">
+      <c r="G56" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9726,8 +9727,8 @@
       <c r="D57" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="91"/>
-      <c r="G57" s="92"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="94"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="50" t="s">
@@ -9742,8 +9743,8 @@
       <c r="D58" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="F58" s="91"/>
-      <c r="G58" s="92"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="94"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="50" t="s">
@@ -9752,8 +9753,8 @@
       <c r="D59" s="51" t="s">
         <v>544</v>
       </c>
-      <c r="F59" s="91"/>
-      <c r="G59" s="92"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="94"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="50" t="s">
@@ -9762,8 +9763,8 @@
       <c r="D60" s="51" t="s">
         <v>546</v>
       </c>
-      <c r="F60" s="91"/>
-      <c r="G60" s="92"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="94"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="50" t="s">
@@ -9784,7 +9785,7 @@
       <c r="F61" s="54" t="s">
         <v>549</v>
       </c>
-      <c r="G61" s="92" t="s">
+      <c r="G61" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H61" s="58" t="s">
@@ -9807,7 +9808,7 @@
       <c r="E62" s="52" t="s">
         <v>552</v>
       </c>
-      <c r="G62" s="92"/>
+      <c r="G62" s="94"/>
       <c r="H62" s="62" t="s">
         <v>553</v>
       </c>
@@ -9865,10 +9866,10 @@
       <c r="E65" s="52" t="s">
         <v>566</v>
       </c>
-      <c r="F65" s="91" t="s">
+      <c r="F65" s="93" t="s">
         <v>567</v>
       </c>
-      <c r="G65" s="92" t="s">
+      <c r="G65" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9888,8 +9889,8 @@
       <c r="E66" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="F66" s="91"/>
-      <c r="G66" s="92"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="94"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="50" t="s">
@@ -9898,8 +9899,8 @@
       <c r="D67" s="51" t="s">
         <v>570</v>
       </c>
-      <c r="F67" s="91"/>
-      <c r="G67" s="92"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="94"/>
       <c r="L67" s="50" t="s">
         <v>571</v>
       </c>
@@ -9911,8 +9912,8 @@
       <c r="D68" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="F68" s="91"/>
-      <c r="G68" s="92"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="94"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="50" t="s">
@@ -9976,10 +9977,10 @@
       <c r="E71" s="47" t="s">
         <v>584</v>
       </c>
-      <c r="F71" s="91" t="s">
+      <c r="F71" s="93" t="s">
         <v>585</v>
       </c>
-      <c r="G71" s="92" t="s">
+      <c r="G71" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9999,8 +10000,8 @@
       <c r="E72" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="F72" s="91"/>
-      <c r="G72" s="92"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="94"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="50" t="s">
@@ -10064,10 +10065,10 @@
       <c r="E75" s="52" t="s">
         <v>597</v>
       </c>
-      <c r="F75" s="91" t="s">
+      <c r="F75" s="93" t="s">
         <v>598</v>
       </c>
-      <c r="G75" s="92" t="s">
+      <c r="G75" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10087,8 +10088,8 @@
       <c r="E76" s="52" t="s">
         <v>600</v>
       </c>
-      <c r="F76" s="91"/>
-      <c r="G76" s="92"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="94"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="50" t="s">
@@ -10120,10 +10121,10 @@
       <c r="E78" s="47" t="s">
         <v>606</v>
       </c>
-      <c r="F78" s="91" t="s">
+      <c r="F78" s="93" t="s">
         <v>607</v>
       </c>
-      <c r="G78" s="92" t="s">
+      <c r="G78" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10143,8 +10144,8 @@
       <c r="E79" s="47" t="s">
         <v>609</v>
       </c>
-      <c r="F79" s="91"/>
-      <c r="G79" s="92"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="94"/>
     </row>
     <row r="80" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A80" s="50" t="s">
@@ -10185,10 +10186,10 @@
       <c r="D81" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="F81" s="91" t="s">
+      <c r="F81" s="93" t="s">
         <v>620</v>
       </c>
-      <c r="G81" s="92"/>
+      <c r="G81" s="94"/>
       <c r="H81" s="58" t="s">
         <v>621</v>
       </c>
@@ -10206,8 +10207,8 @@
       <c r="D82" s="51" t="s">
         <v>623</v>
       </c>
-      <c r="F82" s="91"/>
-      <c r="G82" s="92"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="94"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="50" t="s">
@@ -10271,8 +10272,8 @@
       <c r="E85" s="57" t="s">
         <v>634</v>
       </c>
-      <c r="F85" s="91"/>
-      <c r="G85" s="92" t="s">
+      <c r="F85" s="93"/>
+      <c r="G85" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10292,8 +10293,8 @@
       <c r="E86" s="57" t="s">
         <v>635</v>
       </c>
-      <c r="F86" s="91"/>
-      <c r="G86" s="92"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="94"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="50" t="s">
@@ -10302,8 +10303,8 @@
       <c r="D87" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="F87" s="91"/>
-      <c r="G87" s="92"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="94"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="50" t="s">
@@ -10312,8 +10313,8 @@
       <c r="D88" s="51" t="s">
         <v>639</v>
       </c>
-      <c r="F88" s="91"/>
-      <c r="G88" s="92"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="94"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="50" t="s">
@@ -10400,10 +10401,10 @@
       <c r="E92" s="57" t="s">
         <v>652</v>
       </c>
-      <c r="F92" s="91" t="s">
+      <c r="F92" s="93" t="s">
         <v>653</v>
       </c>
-      <c r="G92" s="92" t="s">
+      <c r="G92" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10423,8 +10424,8 @@
       <c r="E93" s="47" t="s">
         <v>655</v>
       </c>
-      <c r="F93" s="91"/>
-      <c r="G93" s="92"/>
+      <c r="F93" s="93"/>
+      <c r="G93" s="94"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="50" t="s">
@@ -10442,10 +10443,10 @@
       <c r="E94" s="52" t="s">
         <v>658</v>
       </c>
-      <c r="F94" s="93" t="s">
+      <c r="F94" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="G94" s="92" t="s">
+      <c r="G94" s="94" t="s">
         <v>24</v>
       </c>
       <c r="I94" s="50" t="s">
@@ -10459,8 +10460,8 @@
       <c r="D95" s="51" t="s">
         <v>661</v>
       </c>
-      <c r="F95" s="93"/>
-      <c r="G95" s="92"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="94"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="50" t="s">
@@ -10478,8 +10479,8 @@
       <c r="E96" s="52" t="s">
         <v>663</v>
       </c>
-      <c r="F96" s="93"/>
-      <c r="G96" s="92"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="94"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="50" t="s">
@@ -10497,10 +10498,10 @@
       <c r="E97" s="52" t="s">
         <v>665</v>
       </c>
-      <c r="F97" s="91" t="s">
+      <c r="F97" s="93" t="s">
         <v>666</v>
       </c>
-      <c r="G97" s="92" t="s">
+      <c r="G97" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10520,8 +10521,8 @@
       <c r="E98" s="52" t="s">
         <v>668</v>
       </c>
-      <c r="F98" s="91"/>
-      <c r="G98" s="92"/>
+      <c r="F98" s="93"/>
+      <c r="G98" s="94"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="50" t="s">
@@ -10539,10 +10540,10 @@
       <c r="E99" s="52" t="s">
         <v>669</v>
       </c>
-      <c r="F99" s="91" t="s">
+      <c r="F99" s="93" t="s">
         <v>670</v>
       </c>
-      <c r="G99" s="92" t="s">
+      <c r="G99" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10562,8 +10563,8 @@
       <c r="E100" s="52" t="s">
         <v>674</v>
       </c>
-      <c r="F100" s="91"/>
-      <c r="G100" s="92"/>
+      <c r="F100" s="93"/>
+      <c r="G100" s="94"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="50" t="s">
@@ -10572,8 +10573,8 @@
       <c r="D101" s="51" t="s">
         <v>676</v>
       </c>
-      <c r="F101" s="91"/>
-      <c r="G101" s="92"/>
+      <c r="F101" s="93"/>
+      <c r="G101" s="94"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="50" t="s">
@@ -10582,8 +10583,8 @@
       <c r="D102" s="51" t="s">
         <v>678</v>
       </c>
-      <c r="F102" s="91"/>
-      <c r="G102" s="92"/>
+      <c r="F102" s="93"/>
+      <c r="G102" s="94"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="50" t="s">
@@ -10641,10 +10642,10 @@
       <c r="E105" s="52" t="s">
         <v>689</v>
       </c>
-      <c r="F105" s="91" t="s">
+      <c r="F105" s="93" t="s">
         <v>690</v>
       </c>
-      <c r="G105" s="92" t="s">
+      <c r="G105" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10664,8 +10665,8 @@
       <c r="E106" s="52" t="s">
         <v>692</v>
       </c>
-      <c r="F106" s="91"/>
-      <c r="G106" s="92"/>
+      <c r="F106" s="93"/>
+      <c r="G106" s="94"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="50" t="s">
@@ -10683,10 +10684,10 @@
       <c r="E107" s="52" t="s">
         <v>693</v>
       </c>
-      <c r="F107" s="91" t="s">
+      <c r="F107" s="93" t="s">
         <v>694</v>
       </c>
-      <c r="G107" s="92" t="s">
+      <c r="G107" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10706,8 +10707,8 @@
       <c r="E108" s="52" t="s">
         <v>696</v>
       </c>
-      <c r="F108" s="91"/>
-      <c r="G108" s="92"/>
+      <c r="F108" s="93"/>
+      <c r="G108" s="94"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="50" t="s">
@@ -10748,10 +10749,10 @@
       <c r="E110" s="52" t="s">
         <v>701</v>
       </c>
-      <c r="F110" s="91" t="s">
+      <c r="F110" s="93" t="s">
         <v>702</v>
       </c>
-      <c r="G110" s="92" t="s">
+      <c r="G110" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10771,8 +10772,8 @@
       <c r="E111" s="52" t="s">
         <v>704</v>
       </c>
-      <c r="F111" s="91"/>
-      <c r="G111" s="92"/>
+      <c r="F111" s="93"/>
+      <c r="G111" s="94"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="50" t="s">
@@ -10790,8 +10791,8 @@
       <c r="E112" s="52" t="s">
         <v>706</v>
       </c>
-      <c r="F112" s="91"/>
-      <c r="G112" s="92"/>
+      <c r="F112" s="93"/>
+      <c r="G112" s="94"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="50" t="s">
@@ -10829,10 +10830,10 @@
       <c r="D114" s="51" t="s">
         <v>714</v>
       </c>
-      <c r="F114" s="91" t="s">
+      <c r="F114" s="93" t="s">
         <v>715</v>
       </c>
-      <c r="G114" s="92"/>
+      <c r="G114" s="94"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="50" t="s">
@@ -10847,8 +10848,8 @@
       <c r="D115" s="51" t="s">
         <v>716</v>
       </c>
-      <c r="F115" s="91"/>
-      <c r="G115" s="92"/>
+      <c r="F115" s="93"/>
+      <c r="G115" s="94"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="50" t="s">
@@ -10866,10 +10867,10 @@
       <c r="E116" s="52" t="s">
         <v>719</v>
       </c>
-      <c r="F116" s="91" t="s">
+      <c r="F116" s="93" t="s">
         <v>720</v>
       </c>
-      <c r="G116" s="92" t="s">
+      <c r="G116" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10889,8 +10890,8 @@
       <c r="E117" s="52" t="s">
         <v>723</v>
       </c>
-      <c r="F117" s="91"/>
-      <c r="G117" s="92"/>
+      <c r="F117" s="93"/>
+      <c r="G117" s="94"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="50" t="s">
@@ -10908,10 +10909,10 @@
       <c r="E118" s="52" t="s">
         <v>724</v>
       </c>
-      <c r="F118" s="91" t="s">
+      <c r="F118" s="93" t="s">
         <v>725</v>
       </c>
-      <c r="G118" s="92" t="s">
+      <c r="G118" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H118" s="58" t="s">
@@ -10934,8 +10935,8 @@
       <c r="E119" s="52" t="s">
         <v>728</v>
       </c>
-      <c r="F119" s="91"/>
-      <c r="G119" s="92"/>
+      <c r="F119" s="93"/>
+      <c r="G119" s="94"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="50" t="s">
@@ -11010,10 +11011,10 @@
       <c r="E123" s="52" t="s">
         <v>742</v>
       </c>
-      <c r="F123" s="91" t="s">
+      <c r="F123" s="93" t="s">
         <v>743</v>
       </c>
-      <c r="G123" s="92" t="s">
+      <c r="G123" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11033,8 +11034,8 @@
       <c r="E124" s="52" t="s">
         <v>744</v>
       </c>
-      <c r="F124" s="91"/>
-      <c r="G124" s="92"/>
+      <c r="F124" s="93"/>
+      <c r="G124" s="94"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="50" t="s">
@@ -11075,10 +11076,10 @@
       <c r="E126" s="52" t="s">
         <v>753</v>
       </c>
-      <c r="F126" s="93" t="s">
+      <c r="F126" s="95" t="s">
         <v>754</v>
       </c>
-      <c r="G126" s="92" t="s">
+      <c r="G126" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11098,8 +11099,8 @@
       <c r="E127" s="52" t="s">
         <v>755</v>
       </c>
-      <c r="F127" s="93"/>
-      <c r="G127" s="92"/>
+      <c r="F127" s="95"/>
+      <c r="G127" s="94"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="50" t="s">
@@ -11140,10 +11141,10 @@
       <c r="E129" s="52" t="s">
         <v>763</v>
       </c>
-      <c r="F129" s="91" t="s">
+      <c r="F129" s="93" t="s">
         <v>764</v>
       </c>
-      <c r="G129" s="92" t="s">
+      <c r="G129" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11163,8 +11164,8 @@
       <c r="E130" s="52" t="s">
         <v>766</v>
       </c>
-      <c r="F130" s="91"/>
-      <c r="G130" s="92"/>
+      <c r="F130" s="93"/>
+      <c r="G130" s="94"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="50" t="s">
@@ -11392,10 +11393,10 @@
       <c r="E141" s="52" t="s">
         <v>811</v>
       </c>
-      <c r="F141" s="91" t="s">
+      <c r="F141" s="93" t="s">
         <v>812</v>
       </c>
-      <c r="G141" s="92" t="s">
+      <c r="G141" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11415,8 +11416,8 @@
       <c r="E142" s="52" t="s">
         <v>813</v>
       </c>
-      <c r="F142" s="91"/>
-      <c r="G142" s="92"/>
+      <c r="F142" s="93"/>
+      <c r="G142" s="94"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="50" t="s">
@@ -11455,7 +11456,7 @@
       <c r="F144" s="53" t="s">
         <v>821</v>
       </c>
-      <c r="G144" s="92" t="s">
+      <c r="G144" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11475,7 +11476,7 @@
       <c r="E145" s="52" t="s">
         <v>823</v>
       </c>
-      <c r="G145" s="92"/>
+      <c r="G145" s="94"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="50" t="s">
@@ -11493,10 +11494,10 @@
       <c r="E146" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="F146" s="91" t="s">
+      <c r="F146" s="93" t="s">
         <v>828</v>
       </c>
-      <c r="G146" s="92" t="s">
+      <c r="G146" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11516,8 +11517,8 @@
       <c r="E147" s="52" t="s">
         <v>829</v>
       </c>
-      <c r="F147" s="91"/>
-      <c r="G147" s="92"/>
+      <c r="F147" s="93"/>
+      <c r="G147" s="94"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="50" t="s">
@@ -11526,8 +11527,8 @@
       <c r="D148" s="51" t="s">
         <v>831</v>
       </c>
-      <c r="F148" s="91"/>
-      <c r="G148" s="92"/>
+      <c r="F148" s="93"/>
+      <c r="G148" s="94"/>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="50" t="s">
@@ -11904,10 +11905,10 @@
       <c r="E165" s="47" t="s">
         <v>900</v>
       </c>
-      <c r="F165" s="91" t="s">
+      <c r="F165" s="93" t="s">
         <v>901</v>
       </c>
-      <c r="G165" s="92" t="s">
+      <c r="G165" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11927,8 +11928,8 @@
       <c r="E166" s="47" t="s">
         <v>903</v>
       </c>
-      <c r="F166" s="91"/>
-      <c r="G166" s="92"/>
+      <c r="F166" s="93"/>
+      <c r="G166" s="94"/>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="50" t="s">
@@ -11946,10 +11947,10 @@
       <c r="E167" s="52" t="s">
         <v>905</v>
       </c>
-      <c r="F167" s="91" t="s">
+      <c r="F167" s="93" t="s">
         <v>906</v>
       </c>
-      <c r="G167" s="92" t="s">
+      <c r="G167" s="94" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11969,8 +11970,8 @@
       <c r="E168" s="52" t="s">
         <v>907</v>
       </c>
-      <c r="F168" s="91"/>
-      <c r="G168" s="92"/>
+      <c r="F168" s="93"/>
+      <c r="G168" s="94"/>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="50" t="s">
@@ -12059,47 +12060,18 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="F146:F148"/>
-    <mergeCell ref="G146:G148"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="F99:F102"/>
-    <mergeCell ref="G99:G102"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="F75:F76"/>
     <mergeCell ref="G75:G76"/>
     <mergeCell ref="F44:F45"/>
@@ -12113,18 +12085,47 @@
     <mergeCell ref="G65:G68"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="F99:F102"/>
+    <mergeCell ref="G99:G102"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="F146:F148"/>
+    <mergeCell ref="G146:G148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12134,7 +12135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CA7C5C-97BB-413C-88B2-03B1B38411C8}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -12749,10 +12750,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="94">
+      <c r="C40" s="91">
         <v>270</v>
       </c>
     </row>
@@ -16412,4 +16413,69 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFB3112-65F9-409A-AF53-CC115324B4F4}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NewSheet.xlsx
+++ b/NewSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OD traninig videos\OD DOC\Backup\Mydocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A124CB-8DF2-4E36-9882-287BEB57A2B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820FA00-32A6-4AE6-9159-C85E819D1257}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="960" windowWidth="21600" windowHeight="11340" activeTab="4" xr2:uid="{2C1CCCC0-FA86-4596-BF9F-0B816FA82C3B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="990">
   <si>
     <t>Location:</t>
   </si>
@@ -2987,6 +2987,36 @@
   </si>
   <si>
     <t>Himanshu</t>
+  </si>
+  <si>
+    <t>nxvzlnlkmvkmnvxzl</t>
+  </si>
+  <si>
+    <t>kvzx;lmv;lmzcxv;mvxz;l</t>
+  </si>
+  <si>
+    <t>,;lm;samf;kldm;lbcm,bvfm;,;</t>
+  </si>
+  <si>
+    <t>L;</t>
+  </si>
+  <si>
+    <t>`M;L,K</t>
+  </si>
+  <si>
+    <t>M;K</t>
+  </si>
+  <si>
+    <t>mkmndlkfkcv,cv ,vzxc m;</t>
+  </si>
+  <si>
+    <t>kl</t>
+  </si>
+  <si>
+    <t>k;l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
   </si>
 </sst>
 </file>
@@ -12060,18 +12090,47 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="F146:F148"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="F99:F102"/>
+    <mergeCell ref="G99:G102"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="G85:G88"/>
     <mergeCell ref="F75:F76"/>
     <mergeCell ref="G75:G76"/>
     <mergeCell ref="F44:F45"/>
@@ -12085,47 +12144,18 @@
     <mergeCell ref="G65:G68"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="G85:G88"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="F99:F102"/>
-    <mergeCell ref="G99:G102"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="F146:F148"/>
-    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16417,60 +16447,111 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFB3112-65F9-409A-AF53-CC115324B4F4}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:22">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="C6" t="s">
+        <v>980</v>
+      </c>
+      <c r="D6" t="s">
+        <v>981</v>
+      </c>
+      <c r="H6" t="s">
+        <v>982</v>
+      </c>
+      <c r="I6" t="s">
+        <v>983</v>
+      </c>
+      <c r="J6" t="s">
+        <v>984</v>
+      </c>
+      <c r="K6" t="s">
+        <v>985</v>
+      </c>
+      <c r="L6" t="s">
+        <v>985</v>
+      </c>
+      <c r="M6" t="s">
+        <v>985</v>
+      </c>
+      <c r="N6" t="s">
+        <v>985</v>
+      </c>
+      <c r="O6" t="s">
+        <v>985</v>
+      </c>
+      <c r="P6" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>986</v>
+      </c>
+      <c r="R6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S6" t="s">
+        <v>214</v>
+      </c>
+      <c r="T6" t="s">
+        <v>987</v>
+      </c>
+      <c r="U6" t="s">
+        <v>988</v>
+      </c>
+      <c r="V6" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>2</v>
       </c>
